--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>工作日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,81 @@
   </si>
   <si>
     <t>搜索结果页的页面制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页的页面制作，插件截图效果制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件截图效果完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件截图效果完善、测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件截图功能完善（完成区域截图，生成Base64）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件截图功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端不同文件输入格式，转成File上传图片获取网络地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装截图插件,完善项目页面</t>
+  </si>
+  <si>
+    <t>插件解析亚马逊列表页标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目渲染模板制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读接口文档和测试alibaba接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装request请求和项目接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据新版统一数据结构制作项目渲染模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试编写alibaba货源整体图片搜索全流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写aliexpress流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写1688流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写yiwugo流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同货源js代码分离，提取公用函数和data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字搜索UI组件编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +119,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +146,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -85,23 +182,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="h:mm;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="h:mm;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="h:mm;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -112,6 +459,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="工作日期" dataDxfId="4"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="3"/>
+    <tableColumn id="3" name="结束时间" dataDxfId="2"/>
+    <tableColumn id="4" name="工作时长" dataDxfId="1">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="工作内容" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,59 +763,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="5">
         <v>44404</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D2" s="4">
-        <f>C2-B2</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D12" si="0">C2-B2</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="5">
+        <v>44405</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5">
+        <v>44406</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
+        <v>44406</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="5">
+        <v>44427</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="5">
+        <v>44427</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5">
+        <v>44431</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="5">
+        <v>44433</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5">
+        <v>44433</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="5">
+        <v>44434</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="5">
+        <v>44435</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="5">
+        <v>44495</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="6">
+        <f>C13-B13</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="10">
+        <v>44495</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="11">
+        <f>C14-B14</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="10">
+        <v>44496</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D15" s="11">
+        <f>C15-B15</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="10">
+        <v>44498</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="11">
+        <f>C16-B16</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="10">
+        <v>44498</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D17" s="11">
+        <f>C17-B17</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="15">
+        <v>44508</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18-B18</f>
+        <v>0.125</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="10">
+        <v>44509</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="11">
+        <f>C19-B19</f>
+        <v>0.125</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="10">
+        <v>44509</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="11">
+        <f>C20-B20</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="10">
+        <v>44510</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21-B21</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="10">
+        <v>44510</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" s="11">
+        <f>C22-B22</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="13">
+        <f>SUM(表1[工作时长])</f>
+        <v>2.208333333333333</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="E27" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:E26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>工作日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端不同文件输入格式，转成File上传图片获取网络地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,18 @@
   </si>
   <si>
     <t>文字搜索UI组件编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1688文字搜索编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1688、yiwugo、alibaba文字搜索完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计工时(天)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,8 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -174,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,11 +267,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -284,14 +304,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -462,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" name="工作日期" dataDxfId="4"/>
     <tableColumn id="2" name="开始时间" dataDxfId="3"/>
@@ -763,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -918,7 +941,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -936,7 +959,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -954,7 +977,7 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -972,7 +995,7 @@
         <v>0.22916666666666669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -990,7 +1013,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1004,11 +1027,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D13" s="6">
-        <f>C13-B13</f>
+        <f t="shared" ref="D13:D22" si="1">C13-B13</f>
         <v>6.25E-2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1022,11 +1045,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="11">
-        <f>C14-B14</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1040,11 +1063,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D15" s="11">
-        <f>C15-B15</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666669</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1058,11 +1081,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="11">
-        <f>C16-B16</f>
+        <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1076,15 +1099,15 @@
         <v>0.6875</v>
       </c>
       <c r="D17" s="11">
-        <f>C17-B17</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>44508</v>
       </c>
       <c r="B18" s="6">
@@ -1094,11 +1117,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D18" s="6">
-        <f>C18-B18</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>22</v>
+      <c r="E18" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1112,11 +1135,11 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="11">
-        <f>C19-B19</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1130,11 +1153,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" s="11">
-        <f>C20-B20</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1148,11 +1171,11 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="11">
-        <f>C21-B21</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1166,52 +1189,102 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D22" s="11">
-        <f>C22-B22</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="10">
+        <v>44514</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="11">
+        <f>C23-B23</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="10">
+        <v>44515</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="11">
+        <f>C24-B24</f>
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="13">
-        <f>SUM(表1[工作时长])</f>
-        <v>2.208333333333333</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="E27" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15">
+        <f>SUM(表1[工作时长]) / 8</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29241F-7F34-43E9-A4FF-925A143B35F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>工作日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,18 +132,26 @@
   </si>
   <si>
     <t>合计工时(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试版收尾工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改测试后的BUG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +326,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,22 +505,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="工作日期" dataDxfId="4"/>
-    <tableColumn id="2" name="开始时间" dataDxfId="3"/>
-    <tableColumn id="3" name="结束时间" dataDxfId="2"/>
-    <tableColumn id="4" name="工作时长" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="工作日期" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="开始时间" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="结束时间" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="工作时长" dataDxfId="1">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="工作内容" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="工作内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,6 +595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -610,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,14 +839,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -801,7 +856,7 @@
     <col min="5" max="5" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>44404</v>
       </c>
@@ -836,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>44405</v>
       </c>
@@ -854,7 +909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>44406</v>
       </c>
@@ -872,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>44406</v>
       </c>
@@ -890,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>44427</v>
       </c>
@@ -908,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>44427</v>
       </c>
@@ -926,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>44431</v>
       </c>
@@ -944,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>44433</v>
       </c>
@@ -962,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>44433</v>
       </c>
@@ -980,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>44434</v>
       </c>
@@ -998,7 +1053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>44435</v>
       </c>
@@ -1016,7 +1071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>44495</v>
       </c>
@@ -1034,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>44495</v>
       </c>
@@ -1052,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>44496</v>
       </c>
@@ -1070,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>44498</v>
       </c>
@@ -1088,7 +1143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>44498</v>
       </c>
@@ -1106,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>44508</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>44509</v>
       </c>
@@ -1142,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>44509</v>
       </c>
@@ -1160,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>44510</v>
       </c>
@@ -1178,7 +1233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>44510</v>
       </c>
@@ -1196,7 +1251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>44514</v>
       </c>
@@ -1214,7 +1269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>44515</v>
       </c>
@@ -1232,54 +1287,87 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>44523</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D25" s="11">
+        <f>C25-B25</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>44523</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D26" s="11">
+        <f>C26-B26</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>44524</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D27" s="11">
+        <f>C27-B27</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="15">
         <f>SUM(表1[工作时长]) / 8</f>
-        <v>0.31249999999999994</v>
+        <v>0.3671875</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E31" s="2"/>
     </row>
   </sheetData>
@@ -1288,7 +1376,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29241F-7F34-43E9-A4FF-925A143B35F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFE238-F422-472E-ADDA-36580BC48216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>工作日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>修改测试后的BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复和测试已知BUG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="工作日期" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="开始时间" dataDxfId="3"/>
@@ -844,7 +848,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,11 +1346,22 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="10">
+        <v>44525</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D28" s="11">
+        <f>C28-B28</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
@@ -1361,7 +1376,7 @@
       </c>
       <c r="B30" s="15">
         <f>SUM(表1[工作时长]) / 8</f>
-        <v>0.3671875</v>
+        <v>0.39322916666666669</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>

--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AFE238-F422-472E-ADDA-36580BC48216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE8A5C-CBA7-44F8-85D2-804FE3E01D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修复和测试已知BUG</t>
+    <t>切换货源保留搜索参数，初步完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +848,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,7 +1266,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D23" s="11">
-        <f>C23-B23</f>
+        <f t="shared" ref="D23:D28" si="2">C23-B23</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -1284,7 +1284,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D24" s="11">
-        <f>C24-B24</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -1302,7 +1302,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D25" s="11">
-        <f>C25-B25</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -1320,7 +1320,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D26" s="11">
-        <f>C26-B26</f>
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -1338,7 +1338,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D27" s="11">
-        <f>C27-B27</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -1353,11 +1353,11 @@
         <v>0.75</v>
       </c>
       <c r="C28" s="11">
-        <v>0.95833333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D28" s="11">
-        <f>C28-B28</f>
-        <v>0.20833333333333337</v>
+        <f t="shared" si="2"/>
+        <v>0.14583333333333337</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>29</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B30" s="15">
         <f>SUM(表1[工作时长]) / 8</f>
-        <v>0.39322916666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>

--- a/工作时间.xlsx
+++ b/工作时间.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE8A5C-CBA7-44F8-85D2-804FE3E01D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>工作日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,18 +143,38 @@
   </si>
   <si>
     <t>切换货源保留搜索参数，初步完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改插件和搜索页底层逻辑（具体修改内容在git提交日志）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改插件和搜索页底层逻辑（具体修改内容在git提交日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改插件和搜索页底层逻辑（具体修改内容在git提交日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改插件和搜索页底层逻辑（具体修改内容在git提交日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改插件和搜索页底层逻辑（具体修改内容在git提交日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,22 +528,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E34" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="工作日期" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="开始时间" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="结束时间" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="工作时长" dataDxfId="1">
+    <tableColumn id="1" name="工作日期" dataDxfId="4"/>
+    <tableColumn id="2" name="开始时间" dataDxfId="3"/>
+    <tableColumn id="3" name="结束时间" dataDxfId="2"/>
+    <tableColumn id="4" name="工作时长" dataDxfId="1">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="工作内容" dataDxfId="0"/>
+    <tableColumn id="5" name="工作内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -599,23 +618,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -651,23 +653,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,15 +828,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -860,7 +845,7 @@
     <col min="5" max="5" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5">
         <v>44404</v>
       </c>
@@ -895,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5">
         <v>44405</v>
       </c>
@@ -913,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>44406</v>
       </c>
@@ -931,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5">
         <v>44406</v>
       </c>
@@ -949,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5">
         <v>44427</v>
       </c>
@@ -967,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5">
         <v>44427</v>
       </c>
@@ -985,7 +970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5">
         <v>44431</v>
       </c>
@@ -1003,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5">
         <v>44433</v>
       </c>
@@ -1021,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5">
         <v>44433</v>
       </c>
@@ -1039,7 +1024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="5">
         <v>44434</v>
       </c>
@@ -1057,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5">
         <v>44435</v>
       </c>
@@ -1075,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5">
         <v>44495</v>
       </c>
@@ -1093,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="10">
         <v>44495</v>
       </c>
@@ -1111,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="10">
         <v>44496</v>
       </c>
@@ -1129,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="10">
         <v>44498</v>
       </c>
@@ -1147,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="10">
         <v>44498</v>
       </c>
@@ -1165,7 +1150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="13">
         <v>44508</v>
       </c>
@@ -1183,7 +1168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10">
         <v>44509</v>
       </c>
@@ -1201,7 +1186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="10">
         <v>44509</v>
       </c>
@@ -1219,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="10">
         <v>44510</v>
       </c>
@@ -1237,7 +1222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="10">
         <v>44510</v>
       </c>
@@ -1255,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="10">
         <v>44514</v>
       </c>
@@ -1273,7 +1258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="10">
         <v>44515</v>
       </c>
@@ -1291,7 +1276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="10">
         <v>44523</v>
       </c>
@@ -1309,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="10">
         <v>44523</v>
       </c>
@@ -1327,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="10">
         <v>44524</v>
       </c>
@@ -1345,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="10">
         <v>44525</v>
       </c>
@@ -1363,31 +1348,132 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="10">
+        <v>44527</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D29" s="11">
+        <f>C29-B29</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="10">
+        <v>44527</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" s="11">
+        <f>C30-B30</f>
+        <v>0.125</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="10">
+        <v>44527</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D31" s="11">
+        <f>C31-B31</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="10">
+        <v>44528</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D32" s="11">
+        <f>C32-B32</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="10">
+        <v>44528</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D33" s="11">
+        <f>C33-B33</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="10">
+        <v>44529</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D34" s="11">
+        <f>C34-B34</f>
+        <v>0.18750000000000006</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B35" s="15">
         <f>SUM(表1[工作时长]) / 8</f>
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E31" s="2"/>
+        <v>0.5078125</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B35:E35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
